--- a/Chọn nhà vc tối ưu VD.xlsx
+++ b/Chọn nhà vc tối ưu VD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tien9\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN-6151071082-NguyenHoangPhat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5A95F7-2722-4822-B1BA-1CF7D76D3E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9921DCF-A628-425F-8FD7-3AF013BF8593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="4" xr2:uid="{801DE381-A309-44A1-BBC0-0739BE654B0F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{801DE381-A309-44A1-BBC0-0739BE654B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="test API" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="DP" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t>VD: Tổng có 4 load tương ứng 4 tuyến. Nhà A 2 load, nhà B 1 load, nhà C 1 load</t>
   </si>
@@ -540,12 +541,160 @@
   <si>
     <t>huy</t>
   </si>
+  <si>
+    <t>Ncc 1</t>
+  </si>
+  <si>
+    <t>Ncc 2</t>
+  </si>
+  <si>
+    <t>Ncc 3</t>
+  </si>
+  <si>
+    <t>Ncc 4</t>
+  </si>
+  <si>
+    <t>Ncc 5</t>
+  </si>
+  <si>
+    <t>Ncc 6</t>
+  </si>
+  <si>
+    <t>Ncc 7</t>
+  </si>
+  <si>
+    <t>Giá theo KM * Độ dài tuyến</t>
+  </si>
+  <si>
+    <t>Tuyến 1
+Loại xe 1</t>
+  </si>
+  <si>
+    <t>Tuyến 2
+Loại xe 1</t>
+  </si>
+  <si>
+    <t>Tuyến 3
+Loại xe 1</t>
+  </si>
+  <si>
+    <t>Tuyến 4
+Loại xe 2</t>
+  </si>
+  <si>
+    <t>Tuyến 5
+Loại xe 2</t>
+  </si>
+  <si>
+    <t>Tuyến 6
+Loại xe 2</t>
+  </si>
+  <si>
+    <t>Loại xe 1</t>
+  </si>
+  <si>
+    <t>Loại xe 2</t>
+  </si>
+  <si>
+    <t>Ca sáng</t>
+  </si>
+  <si>
+    <t>Ca ngày</t>
+  </si>
+  <si>
+    <t>Ca ngày và đêm</t>
+  </si>
+  <si>
+    <t>Ca đêm</t>
+  </si>
+  <si>
+    <t>Thời gian đáp ứng</t>
+  </si>
+  <si>
+    <t>Số tuyến có thể đáp ứng</t>
+  </si>
+  <si>
+    <t>Công nợ hiện tại + Phí thu hộ của tuyến</t>
+  </si>
+  <si>
+    <t>Nv 1</t>
+  </si>
+  <si>
+    <t>Nv 2</t>
+  </si>
+  <si>
+    <t>Nv 3</t>
+  </si>
+  <si>
+    <t>Nv 4</t>
+  </si>
+  <si>
+    <t>Nv 5</t>
+  </si>
+  <si>
+    <t>Nv 6</t>
+  </si>
+  <si>
+    <t>Nv 7</t>
+  </si>
+  <si>
+    <t>Giao hàng</t>
+  </si>
+  <si>
+    <t>Giao hàng lắp đặt</t>
+  </si>
+  <si>
+    <t>Tuyến 1
+Giao hàng</t>
+  </si>
+  <si>
+    <t>Tuyến 3
+Giao hàng</t>
+  </si>
+  <si>
+    <t>Tuyến 5
+Giao hàng</t>
+  </si>
+  <si>
+    <t>Tuyến 6
+Giao hàng</t>
+  </si>
+  <si>
+    <t>Tuyến 4
+Giao hàng lắp đặt</t>
+  </si>
+  <si>
+    <t>Tuyến 2
+Giao hàng lắp đặt</t>
+  </si>
+  <si>
+    <t>Ca làm việc</t>
+  </si>
+  <si>
+    <t>Ca hành chính</t>
+  </si>
+  <si>
+    <t>Ca tối</t>
+  </si>
+  <si>
+    <t>Bảo trì</t>
+  </si>
+  <si>
+    <t>Bảo hành</t>
+  </si>
+  <si>
+    <t>Kỹ năng nhân viên</t>
+  </si>
+  <si>
+    <t>Hạn mức
+công nợ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,8 +716,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,8 +741,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -650,11 +816,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -701,6 +902,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,6 +948,3067 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6148" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6148"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004180000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>137160</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6149" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6149"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E52718-9F5C-9848-9054-D42A42F82263}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>160020</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6150" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6150"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BD0364-D38C-AC37-9B5A-017806AAB15E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6151" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6151"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30BDF8E-E649-DB1A-00EA-F1B4796B4E1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6152" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6152"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B53CAD8-7B6F-4285-8408-97358E23A611}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6153" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6153"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B9A936B-A7B0-48C8-BB8C-BC1B5E642927}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6154" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6154"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA237D8-8D22-4118-AC7A-773F2E7EFB54}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6155" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6155"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2333DDDF-C433-4A69-A305-12C15D0C31D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6156" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6156"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2C1090-5DE2-4A1A-90DF-F8822B396E94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6157" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6157"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0459BFDC-3232-4123-82F6-EA492824C6A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6158" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6158"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67312EEC-434D-47CC-A86D-6AD4B6D9A67C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6159" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6159"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C0EDDB-5F18-4F97-B463-D1AC1EF881C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6160" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6160"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EDE6ACF-3E8B-4500-8FD5-57101A626DBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6161" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6161"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30419C2C-7725-47DB-9178-237C586C87DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6162" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6162"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264DE0D7-9CC5-45BC-9875-520A34A2C800}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6163" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6163"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9363DB-11A2-485D-A4FC-EE7DA4531E53}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6164" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6164"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CAEACF9-AB6B-41F9-A81B-B4486D41BA01}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6165" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6165"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4133C1-031C-41F9-9206-0F1EF2FE5EA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6166" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6166"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A98C58B-6BA9-46C1-9299-A6C433AE1254}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6167" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6167"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A9A4E0-2561-4774-A29A-8161B97E095A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6168" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6168"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD69B548-08DE-472A-A3B7-014D4BC086A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6169" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6169"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB010B7F-E862-4B47-85CF-1B89FFA536D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6170" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6170"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C84E182-0D22-46C7-9785-4B82CD078F06}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6171" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6171"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19AC12AA-C564-46F6-82D7-412084339B18}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6172" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6172"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70CEE8F-FA75-4CC5-9049-A48AE34B867C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6173" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6173"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD1222D-46A0-431D-A07F-B0E073C8C132}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6174" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6174"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AB0CF2-0C4A-448F-8997-E4F382D58251}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6175" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6175"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D05F991-147B-49CD-ABE7-46EB571E3958}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6176" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6176"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAED682-A323-4034-B92E-661317054B54}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6177" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6177"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6323A60B-A987-4269-A995-80497FA19785}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6178" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6178"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CDCC92-DC57-45C1-ACB3-6156BBA00191}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6179" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6179"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4AC80C-8750-4C67-BE64-DE0E4FADEB06}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6180" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6180"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E773DC50-1B27-4288-AAE0-EF729D227BC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6181" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6181"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244D3C1B-247F-4A2F-A5E9-776CD33638D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6182" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6182"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD66DF0-9327-4519-94D2-AE4E9A3F5D27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6183" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6183"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3530BF8-7813-47AB-A93F-F1139425EE68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6184" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6184"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6180921-6A45-4582-A403-63B2ECA90E5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6185" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6185"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC631ECB-D542-4953-98CD-384B62A2579A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6186" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6186"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A719E1C-F48C-4F3A-B13C-275A207376E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6187" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6187"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFED9B8-482A-4824-9F70-0905F02E9C94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6188" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6188"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365FAB7C-9457-4EF2-88BA-BFD85686235F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6189" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6189"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2BF4F6-C811-4E96-A4BB-EE8C97259784}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6190" name="Check Box 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6190"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE213DC-DD64-4A15-A9FF-5A0421793CC8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6191" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6191"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567C7FCB-0368-466C-B804-943C6CFBF779}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6192" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6192"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BD820D-CEDC-4547-AD2E-F45C8FD2737B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6193" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6193"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99E3E7E-3433-4293-99D5-BC0121594B7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,15 +4308,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C11AEE-7804-4035-A4E7-3599D382EC0D}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1034,7 +4328,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1043,7 +4337,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1060,7 +4354,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1077,7 +4371,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1094,7 +4388,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1111,7 +4405,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1128,7 +4422,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1144,15 +4438,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7516442D-2619-4037-AFF3-07E89EBD87A2}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1171,7 +4466,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1190,7 +4485,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1209,7 +4504,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1228,7 +4523,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1247,7 +4542,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1266,7 +4561,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1285,7 +4580,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1304,7 +4599,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1323,7 +4618,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1342,7 +4637,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1361,7 +4656,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1380,7 +4675,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1399,7 +4694,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1410,7 +4705,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1421,7 +4716,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1240</v>
       </c>
@@ -1435,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1290</v>
       </c>
@@ -1449,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1150</v>
       </c>
@@ -1470,22 +4765,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0910AC-E114-410C-AFCC-1F2F71EA25AF}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="29.125" customWidth="1"/>
-    <col min="4" max="4" width="68.125" customWidth="1"/>
-    <col min="5" max="5" width="38.875" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="68.109375" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1505,7 +4801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
@@ -1525,7 +4821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -1543,7 +4839,7 @@
       </c>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
@@ -1566,19 +4862,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B46BCB-CA02-40AE-AC4E-31A40B40B4C0}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.75" customWidth="1"/>
+    <col min="1" max="1" width="56.77734375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1586,7 +4883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1594,7 +4891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1605,7 +4902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1613,7 +4910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1621,7 +4918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1629,7 +4926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1641,15 +4938,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8E8D2-186F-45D2-B2EA-2FD2183722CE}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1657,7 +4955,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -1665,7 +4963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1673,7 +4971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1681,7 +4979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1689,7 +4987,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1702,22 +5000,1827 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3BE194-B4F5-413C-B3A7-D2EA05E3E3AB}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="J1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+    </row>
+    <row r="2" spans="1:17" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="16">
+        <f t="shared" ref="B4:B9" ca="1" si="0">RANDBETWEEN(100,500)</f>
+        <v>343</v>
+      </c>
+      <c r="C4" s="16">
+        <f t="shared" ref="C4:G9" ca="1" si="1">RANDBETWEEN(100,500)</f>
+        <v>108</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>445</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>457</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>381</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>311</v>
+      </c>
+      <c r="C5" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>232</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>477</v>
+      </c>
+      <c r="C6" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>318</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>409</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>471</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>447</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>461</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>418</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>419</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="16">
+        <v>2</v>
+      </c>
+      <c r="L8" s="16">
+        <v>2</v>
+      </c>
+      <c r="M8" s="16">
+        <v>1</v>
+      </c>
+      <c r="N8" s="16">
+        <v>1</v>
+      </c>
+      <c r="O8" s="16">
+        <v>2</v>
+      </c>
+      <c r="P8" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>421</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>318</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>344</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="16">
+        <v>2</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1</v>
+      </c>
+      <c r="M9" s="16">
+        <v>1</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1</v>
+      </c>
+      <c r="O9" s="16">
+        <v>2</v>
+      </c>
+      <c r="P9" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="J13" s="25"/>
+      <c r="L13" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="25"/>
+    </row>
+    <row r="14" spans="1:17" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="23"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="16">
+        <f t="shared" ref="B15:H21" ca="1" si="2">RANDBETWEEN(100,500)</f>
+        <v>492</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>441</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>327</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>278</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="H15" s="16">
+        <f ca="1">RANDBETWEEN(400,800)</f>
+        <v>428</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="L15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="24"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>464</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>281</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>417</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>464</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" ref="H16:H21" ca="1" si="3">RANDBETWEEN(400,800)</f>
+        <v>440</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="L16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="24"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>473</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>761</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="C18" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>421</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>477</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>644</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="C19" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>339</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>338</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>445</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>730</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="C20" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>476</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>472</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>447</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>618</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="C21" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>495</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>434</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>495</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>471</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>728</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="L13:P13"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6148" r:id="rId4" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6149" r:id="rId5" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6152" r:id="rId6" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6153" r:id="rId7" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6154" r:id="rId8" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6155" r:id="rId9" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6156" r:id="rId10" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6157" r:id="rId11" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6158" r:id="rId12" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6159" r:id="rId13" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6160" r:id="rId14" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6161" r:id="rId15" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6162" r:id="rId16" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6163" r:id="rId17" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6164" r:id="rId18" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6165" r:id="rId19" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6166" r:id="rId20" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6167" r:id="rId21" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6168" r:id="rId22" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6169" r:id="rId23" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6170" r:id="rId24" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6171" r:id="rId25" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6172" r:id="rId26" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6173" r:id="rId27" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6174" r:id="rId28" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6175" r:id="rId29" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6176" r:id="rId30" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6177" r:id="rId31" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6178" r:id="rId32" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6179" r:id="rId33" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6180" r:id="rId34" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6181" r:id="rId35" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6150" r:id="rId36" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6151" r:id="rId37" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6182" r:id="rId38" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6183" r:id="rId39" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6184" r:id="rId40" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6185" r:id="rId41" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6186" r:id="rId42" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6187" r:id="rId43" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6188" r:id="rId44" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6189" r:id="rId45" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6190" r:id="rId46" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6191" r:id="rId47" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6192" r:id="rId48" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6193" r:id="rId49" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100470DEB3606716F4294AF93323CE92196" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11bfcbe9a022829ed2052df38788da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="421af6c891e856e33dbe8cf2249987e6">
     <xsd:element name="properties">
@@ -1831,17 +6934,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5528C16B-B827-418D-84B9-1111623C4F03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76DD8506-15C7-4E9A-A4DB-E0EED1BCE35C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1855,17 +6974,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76DD8506-15C7-4E9A-A4DB-E0EED1BCE35C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5528C16B-B827-418D-84B9-1111623C4F03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>